--- a/employee_data 1.xlsx
+++ b/employee_data 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desicrew\flask\project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F439A6-8FAE-469D-B25C-6A594E1680AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1AD12-301E-4DC5-A981-7426BBCE7325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{292CEC25-10B0-42E1-B857-F627188AD5B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{292CEC25-10B0-42E1-B857-F627188AD5B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1107,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1276,6 +1276,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1711,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:AD887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1815,7 +1818,9 @@
       <c r="H2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="64">
+        <v>44177</v>
+      </c>
       <c r="J2" s="29"/>
       <c r="K2" s="29" t="s">
         <v>20</v>
@@ -1865,7 +1870,9 @@
       <c r="H3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="64">
+        <v>44853</v>
+      </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
         <v>20</v>
@@ -30184,7 +30191,7 @@
   <customSheetViews>
     <customSheetView guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AE60" xr:uid="{0650EFA9-7110-4C8C-B7EF-D3442253D46F}">
+      <autoFilter ref="A1:AE60" xr:uid="{16F43CDB-3557-4780-BCDD-07018BBABF45}">
         <filterColumn colId="7">
           <filters>
             <filter val="Serving Notice period"/>
@@ -58342,7 +58349,7 @@
   <customSheetViews>
     <customSheetView guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y1002" xr:uid="{71AD3574-FAB4-4D32-BA4A-5ABD02B4E6AB}">
+      <autoFilter ref="A1:Y1002" xr:uid="{27E2D86D-2C67-453C-87A9-FD1D06F6B25B}">
         <filterColumn colId="4">
           <filters blank="1">
             <filter val="Backup (PIP)"/>

--- a/employee_data 1.xlsx
+++ b/employee_data 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desicrew\flask\project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1AD12-301E-4DC5-A981-7426BBCE7325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18B5F1-0777-473D-A02A-78D679F250AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{292CEC25-10B0-42E1-B857-F627188AD5B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1714,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:AD887"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1870,9 +1870,7 @@
       <c r="H3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="64">
-        <v>44853</v>
-      </c>
+      <c r="I3" s="64"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
         <v>20</v>
@@ -30191,7 +30189,7 @@
   <customSheetViews>
     <customSheetView guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AE60" xr:uid="{16F43CDB-3557-4780-BCDD-07018BBABF45}">
+      <autoFilter ref="A1:AE60" xr:uid="{760065AD-86E9-46ED-8A37-C9F517F79580}">
         <filterColumn colId="7">
           <filters>
             <filter val="Serving Notice period"/>
@@ -58349,7 +58347,7 @@
   <customSheetViews>
     <customSheetView guid="{1C5E11DC-6CA5-40A1-8D7A-102EEA2A53F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y1002" xr:uid="{27E2D86D-2C67-453C-87A9-FD1D06F6B25B}">
+      <autoFilter ref="A1:Y1002" xr:uid="{E5DAB59F-2F70-4B1D-9EE1-BCA6B2119669}">
         <filterColumn colId="4">
           <filters blank="1">
             <filter val="Backup (PIP)"/>
